--- a/biology/Médecine/1757_en_santé_et_médecine/1757_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1757_en_santé_et_médecine/1757_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1757_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1757_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1757 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1757_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1757_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>À Dublin, le Lying-In Hospital déménage dans un nouveau bâtiment créé par Richard Cassels et appelé The New Lying-In Hospital ou plus simplement « la Rotonde »[1].
-A Séville, la Fabrique royale de tabac est inaugurée officiellement[2].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>À Dublin, le Lying-In Hospital déménage dans un nouveau bâtiment créé par Richard Cassels et appelé The New Lying-In Hospital ou plus simplement « la Rotonde ».
+A Séville, la Fabrique royale de tabac est inaugurée officiellement.</t>
         </is>
       </c>
     </row>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1757_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1757_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,10 +556,12 @@
           <t>Publications importantes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albrecht von Haller commence la publication de Elementa physiologiae corporis humani[3].
-William Hunter décrit pour la première fois le syndrome de la veine cave supérieure dans The History of an Aneurysm of the Aorta[4].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Albrecht von Haller commence la publication de Elementa physiologiae corporis humani.
+William Hunter décrit pour la première fois le syndrome de la veine cave supérieure dans The History of an Aneurysm of the Aorta.</t>
         </is>
       </c>
     </row>
@@ -555,7 +571,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1757_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1757_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -573,11 +589,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>1er mars : Alexis Boyer (mort en 1833), anatomiste et chirurgien français.
 18 mars: François-Hilaire Gilbert (mort en 1800), vétérinaire français.
-5 juin : Pierre Cabanis (mort en 1808), médecin, physiologiste, philosophe et homme politique français[5].
+5 juin : Pierre Cabanis (mort en 1808), médecin, physiologiste, philosophe et homme politique français.
 10 octobre : Erik Acharius (mort en 1819), botaniste et médecin suédois.
 Date à préciser
 William Charles Wells (mort en 1817), médecin et physicien américain.</t>
@@ -590,7 +608,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1757_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1757_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -608,7 +626,9 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>5 décembre : Johann Hebenstreit (né en 1703), médecin et naturaliste allemand.
 Date inconnue
